--- a/info.xlsx
+++ b/info.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxinghua/Desktop/我心中的北京城/1北京中轴线/中轴线奇遇记/提示词代码/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangzhe/Downloads/demo111/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52A8C225-B902-CD43-A69E-41E60BC5C65E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E919FF-6987-4443-99ED-9B6B9DCCC5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="660" windowWidth="28100" windowHeight="17360" xr2:uid="{B7A052AE-2C42-474A-BB1F-08A91505F603}"/>
+    <workbookView xWindow="2140" yWindow="760" windowWidth="28100" windowHeight="17360" activeTab="1" xr2:uid="{B7A052AE-2C42-474A-BB1F-08A91505F603}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>网址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4AD54E-9807-8240-B513-3C308DA4F9F4}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -721,4 +722,164 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F273C2-58ED-E643-876A-193F778856CE}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="136">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="85">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="153">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="119">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="153">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="153">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="221">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="153">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="85">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="102">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="153">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="85">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="170">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="238">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="153">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="85">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="153">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/info.xlsx
+++ b/info.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangzhe/Downloads/demo111/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxinghua/Desktop/我心中的北京城/1北京中轴线/中轴线奇遇记/提示词代码/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E919FF-6987-4443-99ED-9B6B9DCCC5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB16EEC-4991-5E45-BF85-8DC99A544580}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="760" windowWidth="28100" windowHeight="17360" activeTab="1" xr2:uid="{B7A052AE-2C42-474A-BB1F-08A91505F603}"/>
+    <workbookView xWindow="4480" yWindow="2620" windowWidth="28100" windowHeight="17360" xr2:uid="{B7A052AE-2C42-474A-BB1F-08A91505F603}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ch1" sheetId="1" r:id="rId1"/>
+    <sheet name="ch2" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ch1'!$A$1:$B$18</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,15 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
-  <si>
-    <t>网址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>ch1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +170,14 @@
   </si>
   <si>
     <t>ch1-9-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4AD54E-9807-8240-B513-3C308DA4F9F4}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:B18"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -576,146 +579,146 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="34">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="51">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="34">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="51">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="51">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="34">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="34">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="34">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="34">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="51">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="68">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="51">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -725,160 +728,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F273C2-58ED-E643-876A-193F778856CE}">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FA0B78-BB50-8843-83F8-9BAA176109F8}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="136">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="85">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="153">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="119">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="153">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="153">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="221">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="153">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="85">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="102">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="153">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="85">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="170">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="238">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="153">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="85">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="153">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxinghua/Desktop/我心中的北京城/1北京中轴线/中轴线奇遇记/提示词代码/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB16EEC-4991-5E45-BF85-8DC99A544580}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9FCCB4-7C9A-0F49-A6C0-A76C1BB4684D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="2620" windowWidth="28100" windowHeight="17360" xr2:uid="{B7A052AE-2C42-474A-BB1F-08A91505F603}"/>
+    <workbookView xWindow="4480" yWindow="2620" windowWidth="28100" windowHeight="17360" activeTab="1" xr2:uid="{B7A052AE-2C42-474A-BB1F-08A91505F603}"/>
   </bookViews>
   <sheets>
-    <sheet name="ch1" sheetId="1" r:id="rId1"/>
-    <sheet name="ch2" sheetId="3" r:id="rId2"/>
+    <sheet name="1碑影迷踪" sheetId="1" r:id="rId1"/>
+    <sheet name="2消失的龙" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ch1'!$A$1:$B$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1碑影迷踪'!$A$1:$B$18</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>ch1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,11 +173,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示</t>
+    <t>网址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4AD54E-9807-8240-B513-3C308DA4F9F4}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -729,12 +729,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FA0B78-BB50-8843-83F8-9BAA176109F8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxinghua/Desktop/我心中的北京城/1北京中轴线/中轴线奇遇记/提示词代码/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9FCCB4-7C9A-0F49-A6C0-A76C1BB4684D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71933A7-8E5B-6747-B967-EDC51832CD43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="2620" windowWidth="28100" windowHeight="17360" activeTab="1" xr2:uid="{B7A052AE-2C42-474A-BB1F-08A91505F603}"/>
+    <workbookView xWindow="5500" yWindow="940" windowWidth="28100" windowHeight="17360" xr2:uid="{B7A052AE-2C42-474A-BB1F-08A91505F603}"/>
   </bookViews>
   <sheets>
     <sheet name="1碑影迷踪" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日记中的古诗提到两处古迹的名字，有一处现已无存，请找到仍然存在的古迹名称。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ch1-2-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,6 +174,10 @@
   </si>
   <si>
     <t>提示词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日记中的古诗提到两处古迹的名字，有一处现已无存，请找到仍然存在的古迹名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4AD54E-9807-8240-B513-3C308DA4F9F4}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -579,10 +579,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="34">
@@ -590,135 +590,135 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="51">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="34">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="51">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="51">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="34">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="34">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="34">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="34">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="51">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="68">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="51">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -731,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FA0B78-BB50-8843-83F8-9BAA176109F8}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -739,10 +739,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxinghua/Desktop/我心中的北京城/1北京中轴线/中轴线奇遇记/提示词代码/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71933A7-8E5B-6747-B967-EDC51832CD43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE742182-9AC1-1F4F-AC35-E8EEFF89FBB4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="940" windowWidth="28100" windowHeight="17360" xr2:uid="{B7A052AE-2C42-474A-BB1F-08A91505F603}"/>
+    <workbookView xWindow="4440" yWindow="3040" windowWidth="28100" windowHeight="17360" xr2:uid="{B7A052AE-2C42-474A-BB1F-08A91505F603}"/>
   </bookViews>
   <sheets>
     <sheet name="1碑影迷踪" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在燕墩所在位置向北望去半里左右会看到一座位于中轴线上的古代建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>碑文落款年份可在《皇都篇》拓片碑文末处获得，水兽在石碑基座束腰处，数量需到现场细数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,6 +174,10 @@
   </si>
   <si>
     <t>日记中的古诗提到两处古迹的名字，有一处现已无存，请找到仍然存在的古迹名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从燕墩所在位置向北望去半里左右会看到一座位于中轴线上的古代建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,10 +579,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="34">
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34">
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34">
@@ -606,7 +606,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34">
@@ -614,111 +614,111 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="51">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="34">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="51">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="51">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="34">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="34">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="34">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="34">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="51">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="68">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="51">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34">
       <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="34">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -739,10 +739,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
